--- a/data/RMRP2022ActivitiesSP.xlsx
+++ b/data/RMRP2022ActivitiesSP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="120">
   <si>
     <t>País Country</t>
   </si>
@@ -104,21 +104,108 @@
     <t>Otro adultos</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Guanajuato</t>
+  </si>
+  <si>
+    <t>Alto Comisionado de las Naciones Unidas para los Refugiados (ACNUR)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t># de refugiados y migrantes inscritos en instituciones educativas formales o inscritos en actividades / programas de educación alternativa o no formal</t>
+  </si>
+  <si>
+    <t>CBI support for tertiary education</t>
+  </si>
+  <si>
+    <t>Persons of concern in Mexico have access to public and private services including education (university)</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Otros mecanismos de dinero electrónico</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>Protección (General)</t>
+  </si>
+  <si>
+    <t># de personas refugiadas y migrantes de Venezuela que recibieron asistencia de protección y servicios especializados</t>
+  </si>
+  <si>
+    <t>Support for naturalization (CBI and other costs)</t>
+  </si>
+  <si>
+    <t>Persons of concern have information and support needed to access naturalization</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Integración</t>
+  </si>
+  <si>
+    <t># de refugiados y migrantes cuyos diplomas, títulos o credenciales profesionales - obtenidos a través de la educación terciaria o las escuelas profesionales/de formación profesional - han sido certificados, reconocidos o validados en sus países de acogida</t>
+  </si>
+  <si>
+    <t>CBI support for recognition of academic degrees and certification</t>
+  </si>
+  <si>
+    <t>Persons of concern and host communities receive economic support, information and follow-up about how to access public and private (including financial) services.</t>
+  </si>
+  <si>
+    <t>Coahuila</t>
+  </si>
+  <si>
+    <t>CBI support for enrollement to primary, secondary public schools</t>
+  </si>
+  <si>
+    <t>Persons of concern in Mexico have access to public and private services including education (primary and secondary school)</t>
+  </si>
+  <si>
+    <t>Estado de México</t>
+  </si>
+  <si>
+    <t>CBI for issuance of residence documentation</t>
+  </si>
+  <si>
+    <t>Refugees and asylum-seekers receive support and orientation to access documentation.</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t># de personas refugiadas, migrantes y de comunidades acogidas apoyadas para poder acceder a oportunidades de empleo o para poder mantener su empleo</t>
+  </si>
+  <si>
+    <t>CBI for Vocational training</t>
+  </si>
+  <si>
+    <t>Support for publicly recognized livelihoods training provided to PoCs</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
-    <t>Alto Comisionado de las Naciones Unidas para los Refugiados (ACNUR)</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>Cruz Roja Panamá</t>
   </si>
   <si>
-    <t>2022-01</t>
-  </si>
-  <si>
     <t>Transferencias Monetarias Multipropósito (MPC)</t>
   </si>
   <si>
@@ -128,18 +215,12 @@
     <t>Apoyo a poblacion refugiada y solicitantes por medio de multipurpose cash grants</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
     <t>HIAS</t>
   </si>
   <si>
-    <t>Integración</t>
-  </si>
-  <si>
     <t># de personas alcanzadas con actividades de cohesión social</t>
   </si>
   <si>
@@ -149,9 +230,6 @@
     <t>Capacitaciones para funcionarios de gobierno (que trabajan directamente en los servicios de atención a refugiados/migrantes vulnerables)</t>
   </si>
   <si>
-    <t>Protección (General)</t>
-  </si>
-  <si>
     <t># de iniciativas o actividades desarrolladas en protección basada en la comunidad</t>
   </si>
   <si>
@@ -161,6 +239,21 @@
     <t>Actividades de integración de equipo organizadas en conjunto con líderes comunitarios, culturales y religiosos. #hostcommunities #leadership #socialnetworks #disability</t>
   </si>
   <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>CBI protection</t>
+  </si>
+  <si>
+    <t>Service mapping and referal pathways  are in place to ensure access to  assistance and programmes for PwSN.</t>
+  </si>
+  <si>
+    <t>CBI cash assistance/multi purpose cash vouchers</t>
+  </si>
+  <si>
+    <t>Targeted persons of concern receive support to meet their basic needs through cash-based assistance</t>
+  </si>
+  <si>
     <t>Consejo Noruego para los Refugiados (NRC)</t>
   </si>
   <si>
@@ -170,15 +263,24 @@
     <t>Dinero en efectivo</t>
   </si>
   <si>
-    <t># de personas refugiadas y migrantes de Venezuela que recibieron asistencia de protección y servicios especializados</t>
-  </si>
-  <si>
     <t>Acceso a atención psicosocial</t>
   </si>
   <si>
     <t>Actividades individuales y grupales de acompañamiento psicosocial remoto y/o presencial, dirigido a las personas migrantes y refugiadas para reducir los niveles de ansiedad y estrés.</t>
   </si>
   <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>Aguascalientes</t>
+  </si>
+  <si>
+    <t>Quintana Roo</t>
+  </si>
+  <si>
     <t># de personas capacitadas para fortalecer el entorno de protección</t>
   </si>
   <si>
@@ -188,12 +290,30 @@
     <t>Capacitaciones sobre derechos y servicios básicos disponibles realizadas con refugiados/migrantes vulnerables. #xenophobia #discrimination #training #youth #disability</t>
   </si>
   <si>
+    <t>Peaceful Coexistence</t>
+  </si>
+  <si>
+    <t>Host community spaces are strengthened to support inclusion of persons of concern.</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
     <t># de personas capacitadas para promover la integración de refugiados y migrantes</t>
   </si>
   <si>
     <t>Desarrollo de capacitades para promover la integración y combatir la discriminación</t>
   </si>
   <si>
+    <t>Oaxaca</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
     <t>Programa de las Naciones Unidas para los Asentamientos Humanos (UN Habitat)</t>
   </si>
   <si>
@@ -206,6 +326,21 @@
     <t>Visibilidad proyecto Ciudades Incluyentes, Comunidades Solidarias</t>
   </si>
   <si>
+    <t>Chiapas</t>
+  </si>
+  <si>
+    <t>Servicios Comunes (Coordinación)</t>
+  </si>
+  <si>
+    <t># de reuniones de coordinación multilaterales relevantes para la respuesta R4V mantenidas de manera regular o ad hoc</t>
+  </si>
+  <si>
+    <t>R4V Coordination</t>
+  </si>
+  <si>
+    <t>Humanitarian, development actors and partners are acting in a coordinated manner, and the inter-agency initiatives are maximized.</t>
+  </si>
+  <si>
     <t>Otorgamos servicios de información, orientación y asistencia legal para acceder al proceso de solicitud de la condición de refugiado y para acceder a derechos esenciales</t>
   </si>
   <si>
@@ -228,6 +363,15 @@
   </si>
   <si>
     <t>Mujeres refugiadas y migrantes son capacitadas en espacios seguros comunitarios. Se incluye a autoridades y comunidad local.</t>
+  </si>
+  <si>
+    <t># de intervenciones de incidencia realizadas para promover el acceso al territorio, trámites de asilo, regularización, inscripción de nacimientos y nacionalidad</t>
+  </si>
+  <si>
+    <t>Access and quality of RSD</t>
+  </si>
+  <si>
+    <t>COMAR is provided technical, financial, and staffing support; and other relevant government institutions receive capacity-building support.</t>
   </si>
 </sst>
 </file>
@@ -416,15 +560,12 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
@@ -439,29 +580,32 @@
       <c r="J2" t="s">
         <v>37</v>
       </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O2" t="n">
-        <v>656.0</v>
+        <v>935.0</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
@@ -469,23 +613,17 @@
       <c r="V2" t="n">
         <v>0.0</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z2" t="n">
         <v>0.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC2" t="n">
         <v>0.0</v>
@@ -499,73 +637,64 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
+        <v>39</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2291.0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y3" t="n">
         <v>0.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0</v>
@@ -579,49 +708,52 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
+        <v>39</v>
+      </c>
+      <c r="O4" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
@@ -629,12 +761,6 @@
       <c r="V4" t="n">
         <v>0.0</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y4" t="n">
         <v>0.0</v>
       </c>
@@ -642,10 +768,10 @@
         <v>0.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
@@ -659,16 +785,16 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -677,55 +803,46 @@
         <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O5" t="n">
-        <v>950.0</v>
+        <v>72.0</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="R5" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="S5" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="T5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC5" t="n">
         <v>0.0</v>
@@ -739,79 +856,70 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O6" t="n">
-        <v>112.0</v>
+        <v>1151.0</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>39.0</v>
+        <v>40</v>
       </c>
       <c r="R6" t="n">
-        <v>306.0</v>
+        <v>5.0</v>
       </c>
       <c r="S6" t="n">
-        <v>248.0</v>
+        <v>5.0</v>
       </c>
       <c r="T6" t="n">
-        <v>39.0</v>
+        <v>5.0</v>
       </c>
       <c r="U6" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>248.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X6" t="n">
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>109.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>39.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC6" t="n">
         <v>0.0</v>
@@ -825,22 +933,22 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -849,37 +957,28 @@
         <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0</v>
+        <v>39</v>
+      </c>
+      <c r="O7" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
@@ -888,7 +987,7 @@
         <v>0.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB7" t="n">
         <v>0.0</v>
@@ -905,61 +1004,52 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.0</v>
+        <v>39</v>
+      </c>
+      <c r="O8" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
       </c>
       <c r="R8" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
@@ -968,10 +1058,10 @@
         <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
@@ -985,81 +1075,135 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
-      </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>240.0</v>
+        <v>39</v>
+      </c>
+      <c r="O9" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="O10" t="n">
+        <v>656.0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
       </c>
       <c r="R10" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="S10" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="T10" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
@@ -1074,16 +1218,16 @@
         <v>0.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z10" t="n">
         <v>0.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC10" t="n">
         <v>0.0</v>
@@ -1094,40 +1238,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0</v>
@@ -1174,85 +1318,7737 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
       <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1214.0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="n">
+        <v>758.0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="I12" t="s">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="n">
+        <v>614.0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3172.0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1381.0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" t="s">
         <v>71</v>
       </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
         <v>38</v>
       </c>
-      <c r="N12" t="s">
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1041.0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1458.0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" t="n">
+        <v>766.0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1590.0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O43" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>40</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" t="n">
+        <v>12173.0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" t="s">
+        <v>61</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>40</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9211.0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>40</v>
+      </c>
+      <c r="R47" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O48" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O50" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O51" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>40</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" t="s">
+        <v>57</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O53" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>40</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" t="s">
+        <v>39</v>
+      </c>
+      <c r="N54" t="s">
+        <v>39</v>
+      </c>
+      <c r="O54" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" t="s">
+        <v>39</v>
+      </c>
+      <c r="O55" t="n">
+        <v>727.0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>40</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" t="s">
+        <v>39</v>
+      </c>
+      <c r="O56" t="n">
+        <v>569.0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N57" t="s">
+        <v>39</v>
+      </c>
+      <c r="O57" t="n">
+        <v>8089.0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R57" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" t="s">
+        <v>39</v>
+      </c>
+      <c r="O58" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>40</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N59" t="s">
+        <v>39</v>
+      </c>
+      <c r="O59" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>40</v>
+      </c>
+      <c r="R59" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" t="s">
+        <v>39</v>
+      </c>
+      <c r="O60" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" t="s">
+        <v>39</v>
+      </c>
+      <c r="O61" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>40</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M62" t="s">
+        <v>39</v>
+      </c>
+      <c r="N62" t="s">
+        <v>39</v>
+      </c>
+      <c r="O62" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>40</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" t="s">
+        <v>57</v>
+      </c>
+      <c r="L63" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" t="s">
+        <v>39</v>
+      </c>
+      <c r="N63" t="s">
+        <v>39</v>
+      </c>
+      <c r="O63" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>40</v>
+      </c>
+      <c r="R63" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" t="s">
+        <v>60</v>
+      </c>
+      <c r="K64" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" t="s">
+        <v>39</v>
+      </c>
+      <c r="N64" t="s">
+        <v>39</v>
+      </c>
+      <c r="O64" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J65" t="s">
+        <v>78</v>
+      </c>
+      <c r="K65" t="s">
+        <v>79</v>
+      </c>
+      <c r="L65" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" t="s">
+        <v>39</v>
+      </c>
+      <c r="O65" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>40</v>
+      </c>
+      <c r="R65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" t="s">
+        <v>39</v>
+      </c>
+      <c r="O66" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>40</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" t="s">
+        <v>39</v>
+      </c>
+      <c r="O67" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>40</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68" t="s">
+        <v>39</v>
+      </c>
+      <c r="N68" t="s">
+        <v>39</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1408.0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>40</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s">
+        <v>56</v>
+      </c>
+      <c r="K69" t="s">
+        <v>57</v>
+      </c>
+      <c r="L69" t="s">
+        <v>33</v>
+      </c>
+      <c r="M69" t="s">
+        <v>39</v>
+      </c>
+      <c r="N69" t="s">
+        <v>39</v>
+      </c>
+      <c r="O69" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+      <c r="K70" t="s">
+        <v>108</v>
+      </c>
+      <c r="L70" t="s">
+        <v>33</v>
+      </c>
+      <c r="M70" t="s">
+        <v>39</v>
+      </c>
+      <c r="N70" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" t="s">
+        <v>53</v>
+      </c>
+      <c r="K71" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" t="s">
+        <v>33</v>
+      </c>
+      <c r="M71" t="s">
+        <v>39</v>
+      </c>
+      <c r="N71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O71" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" t="s">
+        <v>77</v>
+      </c>
+      <c r="L72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72" t="s">
+        <v>39</v>
+      </c>
+      <c r="O72" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>40</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L73" t="s">
+        <v>33</v>
+      </c>
+      <c r="M73" t="s">
+        <v>39</v>
+      </c>
+      <c r="N73" t="s">
+        <v>39</v>
+      </c>
+      <c r="O73" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>40</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" t="s">
+        <v>36</v>
+      </c>
+      <c r="J74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" t="s">
+        <v>33</v>
+      </c>
+      <c r="M74" t="s">
+        <v>39</v>
+      </c>
+      <c r="N74" t="s">
+        <v>39</v>
+      </c>
+      <c r="O74" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>40</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75" t="s">
+        <v>39</v>
+      </c>
+      <c r="N75" t="s">
+        <v>39</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2220.0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>40</v>
+      </c>
+      <c r="R75" t="n">
         <v>10.0</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s">
+        <v>77</v>
+      </c>
+      <c r="L76" t="s">
+        <v>33</v>
+      </c>
+      <c r="M76" t="s">
+        <v>39</v>
+      </c>
+      <c r="N76" t="s">
+        <v>39</v>
+      </c>
+      <c r="O76" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>40</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" t="s">
+        <v>49</v>
+      </c>
+      <c r="J77" t="s">
+        <v>50</v>
+      </c>
+      <c r="K77" t="s">
+        <v>51</v>
+      </c>
+      <c r="L77" t="s">
+        <v>33</v>
+      </c>
+      <c r="M77" t="s">
+        <v>39</v>
+      </c>
+      <c r="N77" t="s">
+        <v>39</v>
+      </c>
+      <c r="O77" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>40</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" t="s">
+        <v>33</v>
+      </c>
+      <c r="M78" t="s">
+        <v>39</v>
+      </c>
+      <c r="N78" t="s">
+        <v>39</v>
+      </c>
+      <c r="O78" t="n">
+        <v>509.0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>40</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s">
+        <v>56</v>
+      </c>
+      <c r="K79" t="s">
+        <v>57</v>
+      </c>
+      <c r="L79" t="s">
+        <v>33</v>
+      </c>
+      <c r="M79" t="s">
+        <v>39</v>
+      </c>
+      <c r="N79" t="s">
+        <v>39</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2337.0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>40</v>
+      </c>
+      <c r="R79" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" t="s">
+        <v>33</v>
+      </c>
+      <c r="M80" t="s">
+        <v>39</v>
+      </c>
+      <c r="N80" t="s">
+        <v>39</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>40</v>
+      </c>
+      <c r="R80" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s">
+        <v>77</v>
+      </c>
+      <c r="L81" t="s">
+        <v>33</v>
+      </c>
+      <c r="M81" t="s">
+        <v>39</v>
+      </c>
+      <c r="N81" t="s">
+        <v>39</v>
+      </c>
+      <c r="O81" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>40</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" t="s">
+        <v>53</v>
+      </c>
+      <c r="K82" t="s">
+        <v>54</v>
+      </c>
+      <c r="L82" t="s">
+        <v>33</v>
+      </c>
+      <c r="M82" t="s">
+        <v>39</v>
+      </c>
+      <c r="N82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O82" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>40</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" t="s">
+        <v>57</v>
+      </c>
+      <c r="L83" t="s">
+        <v>33</v>
+      </c>
+      <c r="M83" t="s">
+        <v>39</v>
+      </c>
+      <c r="N83" t="s">
+        <v>39</v>
+      </c>
+      <c r="O83" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>40</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" t="s">
+        <v>49</v>
+      </c>
+      <c r="J84" t="s">
+        <v>50</v>
+      </c>
+      <c r="K84" t="s">
+        <v>51</v>
+      </c>
+      <c r="L84" t="s">
+        <v>33</v>
+      </c>
+      <c r="M84" t="s">
+        <v>39</v>
+      </c>
+      <c r="N84" t="s">
+        <v>39</v>
+      </c>
+      <c r="O84" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>40</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s">
+        <v>43</v>
+      </c>
+      <c r="I85" t="s">
+        <v>44</v>
+      </c>
+      <c r="J85" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" t="s">
+        <v>57</v>
+      </c>
+      <c r="L85" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" t="s">
+        <v>39</v>
+      </c>
+      <c r="N85" t="s">
+        <v>39</v>
+      </c>
+      <c r="O85" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>40</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" t="s">
+        <v>43</v>
+      </c>
+      <c r="I86" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86" t="s">
+        <v>39</v>
+      </c>
+      <c r="O86" t="n">
+        <v>3659.0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>40</v>
+      </c>
+      <c r="R86" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s">
+        <v>38</v>
+      </c>
+      <c r="L87" t="s">
+        <v>33</v>
+      </c>
+      <c r="M87" t="s">
+        <v>39</v>
+      </c>
+      <c r="N87" t="s">
+        <v>39</v>
+      </c>
+      <c r="O87" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>40</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J88" t="s">
+        <v>53</v>
+      </c>
+      <c r="K88" t="s">
+        <v>54</v>
+      </c>
+      <c r="L88" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" t="s">
+        <v>39</v>
+      </c>
+      <c r="O88" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>40</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J89" t="s">
+        <v>53</v>
+      </c>
+      <c r="K89" t="s">
+        <v>54</v>
+      </c>
+      <c r="L89" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" t="s">
+        <v>39</v>
+      </c>
+      <c r="N89" t="s">
+        <v>39</v>
+      </c>
+      <c r="O89" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>40</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" t="s">
+        <v>38</v>
+      </c>
+      <c r="L90" t="s">
+        <v>33</v>
+      </c>
+      <c r="M90" t="s">
+        <v>39</v>
+      </c>
+      <c r="N90" t="s">
+        <v>39</v>
+      </c>
+      <c r="O90" t="n">
+        <v>9913.0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>40</v>
+      </c>
+      <c r="R90" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" t="s">
+        <v>59</v>
+      </c>
+      <c r="J91" t="s">
+        <v>60</v>
+      </c>
+      <c r="K91" t="s">
+        <v>61</v>
+      </c>
+      <c r="L91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" t="s">
+        <v>39</v>
+      </c>
+      <c r="N91" t="s">
+        <v>39</v>
+      </c>
+      <c r="O91" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>40</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J92" t="s">
+        <v>53</v>
+      </c>
+      <c r="K92" t="s">
+        <v>54</v>
+      </c>
+      <c r="L92" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" t="s">
+        <v>39</v>
+      </c>
+      <c r="N92" t="s">
+        <v>39</v>
+      </c>
+      <c r="O92" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>40</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" t="s">
+        <v>43</v>
+      </c>
+      <c r="I93" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" t="s">
+        <v>109</v>
+      </c>
+      <c r="L93" t="s">
+        <v>33</v>
+      </c>
+      <c r="M93" t="s">
+        <v>39</v>
+      </c>
+      <c r="N93" t="s">
+        <v>33</v>
+      </c>
+      <c r="R93" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" t="s">
+        <v>36</v>
+      </c>
+      <c r="J94" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" t="s">
+        <v>38</v>
+      </c>
+      <c r="L94" t="s">
+        <v>33</v>
+      </c>
+      <c r="M94" t="s">
+        <v>39</v>
+      </c>
+      <c r="N94" t="s">
+        <v>39</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9804.0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>40</v>
+      </c>
+      <c r="R94" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s">
+        <v>43</v>
+      </c>
+      <c r="I95" t="s">
+        <v>44</v>
+      </c>
+      <c r="J95" t="s">
+        <v>56</v>
+      </c>
+      <c r="K95" t="s">
+        <v>57</v>
+      </c>
+      <c r="L95" t="s">
+        <v>33</v>
+      </c>
+      <c r="M95" t="s">
+        <v>39</v>
+      </c>
+      <c r="N95" t="s">
+        <v>39</v>
+      </c>
+      <c r="O95" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>40</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J96" t="s">
+        <v>53</v>
+      </c>
+      <c r="K96" t="s">
+        <v>54</v>
+      </c>
+      <c r="L96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M96" t="s">
+        <v>39</v>
+      </c>
+      <c r="N96" t="s">
+        <v>39</v>
+      </c>
+      <c r="O96" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>40</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" t="s">
+        <v>36</v>
+      </c>
+      <c r="J97" t="s">
+        <v>53</v>
+      </c>
+      <c r="K97" t="s">
+        <v>54</v>
+      </c>
+      <c r="L97" t="s">
+        <v>33</v>
+      </c>
+      <c r="M97" t="s">
+        <v>39</v>
+      </c>
+      <c r="N97" t="s">
+        <v>39</v>
+      </c>
+      <c r="O97" t="n">
+        <v>946.0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>40</v>
+      </c>
+      <c r="R97" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" t="s">
+        <v>65</v>
+      </c>
+      <c r="J98" t="s">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s">
+        <v>79</v>
+      </c>
+      <c r="L98" t="s">
+        <v>33</v>
+      </c>
+      <c r="M98" t="s">
+        <v>39</v>
+      </c>
+      <c r="N98" t="s">
+        <v>39</v>
+      </c>
+      <c r="O98" t="n">
+        <v>3393.0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>40</v>
+      </c>
+      <c r="R98" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" t="s">
+        <v>110</v>
+      </c>
+      <c r="J99" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" t="s">
+        <v>112</v>
+      </c>
+      <c r="L99" t="s">
+        <v>39</v>
+      </c>
+      <c r="M99" t="s">
+        <v>33</v>
+      </c>
+      <c r="N99" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" t="s">
+        <v>36</v>
+      </c>
+      <c r="J100" t="s">
+        <v>53</v>
+      </c>
+      <c r="K100" t="s">
+        <v>54</v>
+      </c>
+      <c r="L100" t="s">
+        <v>33</v>
+      </c>
+      <c r="M100" t="s">
+        <v>39</v>
+      </c>
+      <c r="N100" t="s">
+        <v>39</v>
+      </c>
+      <c r="O100" t="n">
+        <v>944.0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>40</v>
+      </c>
+      <c r="R100" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" t="s">
+        <v>36</v>
+      </c>
+      <c r="J101" t="s">
+        <v>53</v>
+      </c>
+      <c r="K101" t="s">
+        <v>54</v>
+      </c>
+      <c r="L101" t="s">
+        <v>33</v>
+      </c>
+      <c r="M101" t="s">
+        <v>39</v>
+      </c>
+      <c r="N101" t="s">
+        <v>39</v>
+      </c>
+      <c r="O101" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>40</v>
+      </c>
+      <c r="R101" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s">
+        <v>79</v>
+      </c>
+      <c r="L102" t="s">
+        <v>33</v>
+      </c>
+      <c r="M102" t="s">
+        <v>39</v>
+      </c>
+      <c r="N102" t="s">
+        <v>39</v>
+      </c>
+      <c r="O102" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="P102" t="s">
+        <v>40</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" t="s">
+        <v>43</v>
+      </c>
+      <c r="I103" t="s">
+        <v>44</v>
+      </c>
+      <c r="J103" t="s">
+        <v>76</v>
+      </c>
+      <c r="K103" t="s">
+        <v>77</v>
+      </c>
+      <c r="L103" t="s">
+        <v>33</v>
+      </c>
+      <c r="M103" t="s">
+        <v>39</v>
+      </c>
+      <c r="N103" t="s">
+        <v>39</v>
+      </c>
+      <c r="O103" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="P103" t="s">
+        <v>40</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" t="s">
+        <v>65</v>
+      </c>
+      <c r="J104" t="s">
+        <v>78</v>
+      </c>
+      <c r="K104" t="s">
+        <v>79</v>
+      </c>
+      <c r="L104" t="s">
+        <v>33</v>
+      </c>
+      <c r="M104" t="s">
+        <v>39</v>
+      </c>
+      <c r="N104" t="s">
+        <v>39</v>
+      </c>
+      <c r="O104" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="P104" t="s">
+        <v>40</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" t="s">
+        <v>44</v>
+      </c>
+      <c r="J105" t="s">
+        <v>76</v>
+      </c>
+      <c r="K105" t="s">
+        <v>77</v>
+      </c>
+      <c r="L105" t="s">
+        <v>33</v>
+      </c>
+      <c r="M105" t="s">
+        <v>39</v>
+      </c>
+      <c r="N105" t="s">
+        <v>39</v>
+      </c>
+      <c r="O105" t="n">
+        <v>657.0</v>
+      </c>
+      <c r="P105" t="s">
+        <v>40</v>
+      </c>
+      <c r="R105" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" t="s">
+        <v>33</v>
+      </c>
+      <c r="M106" t="s">
+        <v>39</v>
+      </c>
+      <c r="N106" t="s">
+        <v>39</v>
+      </c>
+      <c r="O106" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="P106" t="s">
+        <v>40</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107" t="s">
+        <v>48</v>
+      </c>
+      <c r="I107" t="s">
+        <v>49</v>
+      </c>
+      <c r="J107" t="s">
+        <v>50</v>
+      </c>
+      <c r="K107" t="s">
+        <v>51</v>
+      </c>
+      <c r="L107" t="s">
+        <v>33</v>
+      </c>
+      <c r="M107" t="s">
+        <v>39</v>
+      </c>
+      <c r="N107" t="s">
+        <v>39</v>
+      </c>
+      <c r="O107" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="P107" t="s">
+        <v>40</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108" t="s">
+        <v>56</v>
+      </c>
+      <c r="K108" t="s">
+        <v>57</v>
+      </c>
+      <c r="L108" t="s">
+        <v>33</v>
+      </c>
+      <c r="M108" t="s">
+        <v>39</v>
+      </c>
+      <c r="N108" t="s">
+        <v>39</v>
+      </c>
+      <c r="O108" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="P108" t="s">
+        <v>40</v>
+      </c>
+      <c r="R108" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" t="s">
+        <v>113</v>
+      </c>
+      <c r="I109" t="s">
+        <v>114</v>
+      </c>
+      <c r="J109" t="s">
+        <v>115</v>
+      </c>
+      <c r="K109" t="s">
+        <v>116</v>
+      </c>
+      <c r="L109" t="s">
+        <v>39</v>
+      </c>
+      <c r="M109" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R109" t="n">
         <v>126.0</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S109" t="n">
         <v>126.0</v>
       </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="T109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U109" t="n">
         <v>59.0</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V109" t="n">
         <v>126.0</v>
       </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="W109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y109" t="n">
         <v>47.0</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z109" t="n">
         <v>17.0</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA109" t="n">
         <v>58.0</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB109" t="n">
         <v>4.0</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13"/>
+      <c r="AC109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" t="s">
+        <v>49</v>
+      </c>
+      <c r="J110" t="s">
+        <v>50</v>
+      </c>
+      <c r="K110" t="s">
+        <v>51</v>
+      </c>
+      <c r="L110" t="s">
+        <v>33</v>
+      </c>
+      <c r="M110" t="s">
+        <v>39</v>
+      </c>
+      <c r="N110" t="s">
+        <v>39</v>
+      </c>
+      <c r="O110" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="P110" t="s">
+        <v>40</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111" t="s">
+        <v>53</v>
+      </c>
+      <c r="K111" t="s">
+        <v>54</v>
+      </c>
+      <c r="L111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M111" t="s">
+        <v>39</v>
+      </c>
+      <c r="N111" t="s">
+        <v>39</v>
+      </c>
+      <c r="O111" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="P111" t="s">
+        <v>40</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" t="s">
+        <v>59</v>
+      </c>
+      <c r="J112" t="s">
+        <v>60</v>
+      </c>
+      <c r="K112" t="s">
+        <v>61</v>
+      </c>
+      <c r="L112" t="s">
+        <v>33</v>
+      </c>
+      <c r="M112" t="s">
+        <v>39</v>
+      </c>
+      <c r="N112" t="s">
+        <v>39</v>
+      </c>
+      <c r="O112" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P112" t="s">
+        <v>40</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" t="s">
+        <v>43</v>
+      </c>
+      <c r="I113" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113" t="s">
+        <v>76</v>
+      </c>
+      <c r="K113" t="s">
+        <v>77</v>
+      </c>
+      <c r="L113" t="s">
+        <v>33</v>
+      </c>
+      <c r="M113" t="s">
+        <v>39</v>
+      </c>
+      <c r="N113" t="s">
+        <v>39</v>
+      </c>
+      <c r="O113" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="P113" t="s">
+        <v>40</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" t="s">
+        <v>117</v>
+      </c>
+      <c r="J114" t="s">
+        <v>118</v>
+      </c>
+      <c r="K114" t="s">
+        <v>119</v>
+      </c>
+      <c r="L114" t="s">
+        <v>33</v>
+      </c>
+      <c r="M114" t="s">
+        <v>39</v>
+      </c>
+      <c r="N114" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" t="s">
+        <v>43</v>
+      </c>
+      <c r="I115" t="s">
+        <v>44</v>
+      </c>
+      <c r="J115" t="s">
+        <v>56</v>
+      </c>
+      <c r="K115" t="s">
+        <v>57</v>
+      </c>
+      <c r="L115" t="s">
+        <v>33</v>
+      </c>
+      <c r="M115" t="s">
+        <v>39</v>
+      </c>
+      <c r="N115" t="s">
+        <v>39</v>
+      </c>
+      <c r="O115" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="P115" t="s">
+        <v>40</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
